--- a/data/output/model_fi.xlsx
+++ b/data/output/model_fi.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="logit" sheetId="1" r:id="rId1"/>
+    <sheet name="gbtree" sheetId="2" r:id="rId2"/>
+    <sheet name="rf" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
   <si>
     <t>fi_scores</t>
   </si>
@@ -121,13 +123,13 @@
     <t>techsupport_No internet service</t>
   </si>
   <si>
+    <t>internetservice_No</t>
+  </si>
+  <si>
     <t>deviceprotection_No internet service</t>
   </si>
   <si>
     <t>onlinesecurity_No internet service</t>
-  </si>
-  <si>
-    <t>internetservice_No</t>
   </si>
   <si>
     <t>monthlycharges</t>
@@ -531,10 +533,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7465870863743925</v>
+        <v>0.7465867701652034</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -545,7 +547,7 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.6112307216902417</v>
+        <v>0.6112307862768425</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -556,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.4653661331491938</v>
+        <v>0.4653660012166945</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -567,7 +569,7 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.1727395264929226</v>
+        <v>0.1727394979242768</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -578,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.1626228421384226</v>
+        <v>0.1626228162478983</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -589,7 +591,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0.1382611089315368</v>
+        <v>0.1382610905873648</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -600,7 +602,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.1238980483829745</v>
+        <v>0.1238979262717894</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -611,7 +613,7 @@
         <v>33</v>
       </c>
       <c r="B9">
-        <v>0.101824653497602</v>
+        <v>0.1018245186048963</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -622,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.01264864205594653</v>
+        <v>0.01264866217290216</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -633,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>-0.0148370665406172</v>
+        <v>-0.0148371571888395</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -644,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.01957246814048114</v>
+        <v>-0.01957257074054675</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -655,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>-0.0229630734527153</v>
+        <v>-0.02296311099615474</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -666,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>-0.02578816552470431</v>
+        <v>-0.02578816342805004</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -677,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.02822180926023191</v>
+        <v>-0.02822179886107805</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -688,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>-0.02822180926023191</v>
+        <v>-0.02822179886107805</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -699,7 +701,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>-0.02914983689136229</v>
+        <v>-0.0291499016949115</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -710,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>-0.05525968637578718</v>
+        <v>-0.05525965782137857</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -721,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.08274539497180725</v>
+        <v>-0.08274547718292274</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -732,7 +734,7 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>-0.08707640933129658</v>
+        <v>-0.08707643437659279</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -743,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>-0.0993489176209801</v>
+        <v>-0.09934899804697631</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -754,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>-0.1309182776792676</v>
+        <v>-0.1309182927121485</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -765,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>-0.1616848183713196</v>
+        <v>-0.1616848097566079</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -776,7 +778,7 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <v>-0.1661652185272202</v>
+        <v>-0.1661651592265234</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -787,7 +789,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>-0.1696916833075879</v>
+        <v>-0.1696917211651961</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -798,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.171921406413562</v>
+        <v>-0.1719213336145165</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -809,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>-0.1932541784292343</v>
+        <v>-0.1932541044227927</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -820,7 +822,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.1939948012992238</v>
+        <v>-0.193994741281355</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -831,7 +833,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.2083578618481507</v>
+        <v>-0.2083579055975964</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -842,7 +844,7 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>-0.2121009946853031</v>
+        <v>-0.2121010067901928</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -853,7 +855,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -864,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -875,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -886,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -894,10 +896,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -905,10 +907,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -916,10 +918,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>-0.2225063431346058</v>
+        <v>-0.2225062874590469</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -927,10 +929,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>-0.2272738545490852</v>
+        <v>-0.2272741775405659</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -941,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>-0.2327195950552005</v>
+        <v>-0.2327196312579458</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -952,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>-0.2448088186499746</v>
+        <v>-0.2448087328671553</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -963,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.2634532591600379</v>
+        <v>-0.2634532007744543</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -974,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>-0.2643812867910746</v>
+        <v>-0.2643813036087677</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -985,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>-0.2668149305265109</v>
+        <v>-0.2668149390413768</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -996,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>-0.2696400225981067</v>
+        <v>-0.2696399914720168</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -1007,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B45">
-        <v>-0.5354628860657067</v>
+        <v>-0.5354628162270257</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -1018,7 +1020,7 @@
         <v>39</v>
       </c>
       <c r="B46">
-        <v>-0.7341421344331789</v>
+        <v>-0.7341421675811212</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -1029,10 +1031,1064 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>-1.500450685801017</v>
+        <v>-1.500450967183478</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0.3879718958668052</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1530774240714163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.08960210832312909</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.08939086205312775</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.07874379930586095</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0.06563570172368087</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>0.04370749420290842</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>0.02907677320905819</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0.008665515073564776</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.005295211905375448</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.005006476105012171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.004988834899931457</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0.00487875945409796</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>0.004105003138684128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.003853542151878301</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.003724962713445454</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0.003363899716902594</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.003301583003008873</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0.002904326782186053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>0.001758800878699386</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.001705671224590668</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.001393550350089572</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0.0009844464533383611</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>0.000877247861293984</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0.0008133878717579375</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>0.0007591691693929792</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0.0006561417228279548</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>0.0005929767568284163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0.0005159474011610985</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0.0005102567856083464</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>0.0005024215335377146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.0004257851956049441</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>0.0003904307956981743</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>0.0002819049558472172</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>0.0002749055154664743</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0.0001728931226558541</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>8.988870552679015e-05</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0.1661201729625235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.1145328206110498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.1038850986492653</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0.09270704470332436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.09038561666323869</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.06355649052146414</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>0.06241200583776138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.04512533319325612</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0.0330606164999221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.03200870237353133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0.02573762960100474</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.02556781245402838</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.01648653188958658</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.01640117615670715</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.01461420980931796</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.01297762758992217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0.01234226202627941</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.01118027159130904</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.01027880137438045</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.007829285679025185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.005687015823970841</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.004744740405556833</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.003413533474660519</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.00329450317096998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>0.003041325166717641</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.002805089125999551</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0.002604576664322669</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0.002377564632101359</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0.002241834134720877</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0.00209067757115421</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0.001785737700649499</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.001707348454734744</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.001075787360280369</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>0.001002255171082507</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.0009751600191016532</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.0008113166696433749</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>0.0007489040483527366</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0.0006969609454803563</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.0006713981960609949</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>0.0003371230994441346</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>0.0002694338964950432</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0.0002670990460452947</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>9.851808555583209e-05</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>4.258695000108437e-05</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/model_fi.xlsx
+++ b/data/output/model_fi.xlsx
@@ -123,13 +123,13 @@
     <t>techsupport_No internet service</t>
   </si>
   <si>
+    <t>deviceprotection_No internet service</t>
+  </si>
+  <si>
+    <t>onlinesecurity_No internet service</t>
+  </si>
+  <si>
     <t>internetservice_No</t>
-  </si>
-  <si>
-    <t>deviceprotection_No internet service</t>
-  </si>
-  <si>
-    <t>onlinesecurity_No internet service</t>
   </si>
   <si>
     <t>monthlycharges</t>
@@ -533,10 +533,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7465867701652034</v>
+        <v>0.7465906165136528</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -547,7 +547,7 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.6112307862768425</v>
+        <v>0.6112298567617864</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -558,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.4653660012166945</v>
+        <v>0.4653677686239859</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -569,7 +569,7 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.1727394979242768</v>
+        <v>0.1727398577371013</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.1626228162478983</v>
+        <v>0.1626231773924486</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -591,7 +591,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0.1382610905873648</v>
+        <v>0.1382613503605539</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -602,7 +602,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.1238979262717894</v>
+        <v>0.1238995107971828</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -613,7 +613,7 @@
         <v>33</v>
       </c>
       <c r="B9">
-        <v>0.1018245186048963</v>
+        <v>0.1018264642300426</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -624,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.01264866217290216</v>
+        <v>0.01264842284098638</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -635,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>-0.0148371571888395</v>
+        <v>-0.01483602419036153</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.01957257074054675</v>
+        <v>-0.0195714771201701</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>-0.02296311099615474</v>
+        <v>-0.02296262035637194</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>-0.02578816342805004</v>
+        <v>-0.02578817363496577</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.02822179886107805</v>
+        <v>-0.02822168164715587</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>-0.02822179886107805</v>
+        <v>-0.02822168164715587</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -701,7 +701,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>-0.0291499016949115</v>
+        <v>-0.02914892640302812</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>-0.05525965782137857</v>
+        <v>-0.05525998305670714</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -723,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.08274547718292274</v>
+        <v>-0.08274443008845082</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -734,7 +734,7 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>-0.08707643437659279</v>
+        <v>-0.08707606118424979</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>-0.09934899804697631</v>
+        <v>-0.09934778324521773</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -756,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>-0.1309182927121485</v>
+        <v>-0.130917945711237</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>-0.1616848097566079</v>
+        <v>-0.1616850339610066</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -778,7 +778,7 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <v>-0.1661651592265234</v>
+        <v>-0.1661658458577048</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -789,7 +789,7 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>-0.1696917211651961</v>
+        <v>-0.16969124221021</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.1719213336145165</v>
+        <v>-0.1719224714776998</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -811,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>-0.1932541044227927</v>
+        <v>-0.1932551964261902</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -822,7 +822,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.193994741281355</v>
+        <v>-0.1939955180450777</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -833,7 +833,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.2083579055975964</v>
+        <v>-0.2083573576078211</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -844,7 +844,7 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>-0.2121010067901928</v>
+        <v>-0.2121009303667403</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -855,7 +855,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -866,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -888,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>-0.2225062874590469</v>
+        <v>-0.2225069724240639</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>-0.2272741775405659</v>
+        <v>-0.2272698512746125</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>-0.2327196312579458</v>
+        <v>-0.2327191846402573</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -954,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>-0.2448087328671553</v>
+        <v>-0.2448098209051364</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -965,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.2634532007744543</v>
+        <v>-0.2634540532689851</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -976,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>-0.2643813036087677</v>
+        <v>-0.2643812980243636</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>-0.2668149390413768</v>
+        <v>-0.2668148060356978</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>-0.2696399914720168</v>
+        <v>-0.2696403593149941</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -1009,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B45">
-        <v>-0.5354628162270257</v>
+        <v>-0.5354637758708612</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -1020,7 +1020,7 @@
         <v>39</v>
       </c>
       <c r="B46">
-        <v>-0.7341421675811212</v>
+        <v>-0.7341415942225876</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>-1.500450967183478</v>
+        <v>-1.500447290500867</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -1063,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.3879718958668052</v>
+        <v>0.3879718958668022</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.1530774240714163</v>
+        <v>0.1528711696306184</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -1082,32 +1082,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.08960210832312909</v>
+        <v>0.09028040517198797</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>0.08939086205312775</v>
+        <v>0.08969937518835935</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.07874379930586095</v>
+        <v>0.07765231142792683</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.06563570172368087</v>
+        <v>0.06563570172367793</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.04370749420290842</v>
+        <v>0.04370749420290684</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1140,7 +1140,7 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.02907677320905819</v>
+        <v>0.02902606019938408</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1151,7 +1151,7 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>0.008665515073564776</v>
+        <v>0.00659391098402779</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1159,68 +1159,68 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.005699936792584935</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.005295211905375448</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.005006476105012171</v>
+        <v>0.005295211905378828</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>0.004988834899931457</v>
+        <v>0.005026643881396608</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.00487875945409796</v>
+        <v>0.005006476105012103</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>0.004105003138684128</v>
+        <v>0.004878759454098561</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>0.003853542151878301</v>
+        <v>0.004105003138681122</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1228,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.003724962713445454</v>
+        <v>0.003724962713445416</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -1239,7 +1239,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.003363899716902594</v>
+        <v>0.003363899716901362</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1250,7 +1250,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.003301583003008873</v>
+        <v>0.003301583003008782</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1258,35 +1258,35 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>0.002904326782186053</v>
+        <v>0.003146193039904445</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>0.001758800878699386</v>
+        <v>0.00195861742033387</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>0.001705671224590668</v>
+        <v>0.001758800878699332</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001393550350089572</v>
+        <v>0.001401122016937382</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1305,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>0.0009844464533383611</v>
+        <v>0.0009172538742080266</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1313,68 +1313,68 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>0.000877247861293984</v>
+        <v>0.0008701754616916615</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>0.0008133878717579375</v>
+        <v>0.000759169169396767</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0.0007591691693929792</v>
+        <v>0.0006561417228284371</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>0.0006561417228279548</v>
+        <v>0.0006188360441871128</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>0.0005929767568284163</v>
+        <v>0.0006100586772650664</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>0.0005159474011610985</v>
+        <v>0.0005929767568284033</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.0005102567856083464</v>
+        <v>0.0005102567856083366</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>0.0005024215335377146</v>
+        <v>0.0004741353503124628</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0004257851956049441</v>
+        <v>0.0004257851956050287</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -1412,46 +1412,46 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>0.0003904307956981743</v>
+        <v>0.0004256801888453854</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>0.0002819049558472172</v>
+        <v>0.0003336432057643871</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>0.0002749055154664743</v>
+        <v>0.0003181050960788354</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>0.0001728931226558541</v>
+        <v>0.0002819049558472172</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="B38">
-        <v>8.988870552679015e-05</v>
+        <v>0.0001003430534584114</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -1467,18 +1467,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1500,57 +1500,57 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.1661201729625235</v>
+        <v>0.1768206358033802</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1598,24 +1598,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.1145328206110498</v>
+        <v>0.1113669630768618</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0.1038850986492653</v>
+        <v>0.1057600344068785</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1623,7 +1623,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.09270704470332436</v>
+        <v>0.1033855641334104</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -1631,156 +1631,156 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>0.09038561666323869</v>
+        <v>0.06275749908015484</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>0.06355649052146414</v>
+        <v>0.06078826127774434</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.06241200583776138</v>
+        <v>0.05287185310906531</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>0.04512533319325612</v>
+        <v>0.04536474541762493</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.0330606164999221</v>
+        <v>0.03229351911522187</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>0.03200870237353133</v>
+        <v>0.02600263056461908</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.02573762960100474</v>
+        <v>0.02413019988581074</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02556781245402838</v>
+        <v>0.02407909578092463</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01648653188958658</v>
+        <v>0.02176117074364399</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>0.01640117615670715</v>
+        <v>0.02074168958665095</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>0.01461420980931796</v>
+        <v>0.01774897950735689</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01297762758992217</v>
+        <v>0.01723233564244961</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01234226202627941</v>
+        <v>0.01634556858160622</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>0.01118027159130904</v>
+        <v>0.01537774676476058</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.01027880137438045</v>
+        <v>0.01298868571408127</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -1796,35 +1796,35 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007829285679025185</v>
+        <v>0.01199038419497317</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.005687015823970841</v>
+        <v>0.009566885621708859</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.004744740405556833</v>
+        <v>0.006054916837424668</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>0.003413533474660519</v>
+        <v>0.004559387918535455</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -1843,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.00329450317096998</v>
+        <v>0.003296658134419833</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -1851,79 +1851,79 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>0.003041325166717641</v>
+        <v>0.003212391056194438</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>0.002805089125999551</v>
+        <v>0.002084058680896294</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.002604576664322669</v>
+        <v>0.001437054488423959</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>0.002377564632101359</v>
+        <v>0.001294676812109347</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.002241834134720877</v>
+        <v>0.001237578200121566</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>0.00209067757115421</v>
+        <v>0.00121208658830751</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>0.001785737700649499</v>
+        <v>0.001182273136639168</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1931,7 +1931,7 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <v>0.001707348454734744</v>
+        <v>0.00110200400530533</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -1939,101 +1939,101 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.001075787360280369</v>
+        <v>0.0006384595776976624</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001002255171082507</v>
+        <v>0.000572715583096975</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>0.0009751600191016532</v>
+        <v>0.0005318605097145116</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>0.0008113166696433749</v>
+        <v>0.0004687844234490167</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.0007489040483527366</v>
+        <v>0.0004512193088851748</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>0.0006969609454803563</v>
+        <v>0.0004122109262706943</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0.0006713981960609949</v>
+        <v>0.000289280721528322</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>0.0003371230994441346</v>
+        <v>0.0001617099414555941</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>0.0002694338964950432</v>
+        <v>0.0001512721307875736</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2041,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>0.0002670990460452947</v>
+        <v>0.0001484623252159349</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -2049,46 +2049,46 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>9.851808555583209e-05</v>
+        <v>0.0001264906845925902</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>4.258695000108437e-05</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
